--- a/src/test/resources/writer/template_xlsx.xlsx
+++ b/src/test/resources/writer/template_xlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_yamazaki/git/actier/forma4j/src/test/resources/writer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_yamazaki/repo/actier/forma4j/src/test/resources/writer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766A080C-AB37-DD41-BFA4-A86C9E881995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36170971-6034-C749-82AD-F3923D8EF1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
